--- a/Pushback Statistics.xlsx
+++ b/Pushback Statistics.xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://barkernsweduau-my.sharepoint.com/personal/nga28_barker_college/Documents/Desktop/Robotics/EPA Calc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F25DC773A252ABDACC10488041994CBC5ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="University of North Dakota Sign" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Melbourne | Blended Tournament " sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,26 +51,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -336,13 +422,1872 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>EPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9123X</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59.89072723852811</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16610A</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58.92335613095099</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9123C</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49.03444508007686</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10085A</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48.9005674007221</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8977A</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47.36215600598146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2787V</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>44.80011703729563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11101B</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42.52307738908317</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1698V</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>41.47919421433056</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>88909Y</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>41.35191136678683</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>295Y</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>41.23127397024998</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10009A</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>41.20213791839165</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2982X</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>41.07687844812109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8110W</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>40.78559957075051</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>88909X</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>38.21278894781258</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9364V</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>36.56524443441498</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10B</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>36.08668966916123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1523C</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>34.90090951737147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6842K</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>34.4635588840679</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>334C</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>32.50980798326223</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3004A</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>32.27820023672306</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1069A</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>32.13495823294058</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8110C</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>31.54808896110758</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>73017D</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>31.51338866934783</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>81208X</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>31.25593646276436</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16610V</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>31.10059747211754</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>30.95483378398545</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>18888A</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>30.74657878571767</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1412J</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>30.23814996571349</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>334U</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>30.23089100142194</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8823A</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>29.1274911762832</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7009X</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>28.18837817222119</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2145V</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>27.81157842866347</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10702X</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>27.28194179871551</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>32792B</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>26.17049744368172</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>57711N</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>26.04039754920552</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>99319W</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>25.79985641026332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4610Z</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>25.68862753160778</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2131N</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>25.58991999337626</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6008P</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>25.45931210462714</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>10555Z</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>25.1022970459591</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>67100G</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>24.85839202259536</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1532F</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>24.40776032014449</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>11444X</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>23.7885394408263</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>11811A</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>23.51788639768261</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>91231Z</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>22.96836749298537</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2145X</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>22.87677678003192</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>91416N</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>21.99842772567234</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7701A</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>21.64721183019628</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>98377H</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>21.64129528712802</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>886Y</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>21.29196187053295</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6842V</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>21.28300754156936</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>91416X</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>21.20564996135433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7121B</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>21.1882234282596</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1532D</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>21.16382040017301</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7225Z</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>21.09964455414682</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>886S</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20.82088741916401</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>91231X</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>20.62566269442802</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>98377S</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20.53647374284061</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9257C</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>19.64568505023519</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>210Z</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>19.62276708502257</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2550R</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>19.40990660437857</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2502X</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>19.3870506984163</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1551X</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>19.22771292438101</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>99905C</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>19.16957876021024</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4610W</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>19.05364235870307</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>77360Z</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>18.55707619851519</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>9364E</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>18.47418462329682</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>355T</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>18.46484678148905</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>7701X</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>18.34612410945242</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>94T</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>17.96682965832376</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4118D</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>17.86452796102664</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7686A</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>17.68649164822514</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>355Z</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>17.52889956024353</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3142C</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>17.3958388241631</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8110S</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>17.22414777896012</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>229Y</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>16.04814678120327</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>94S</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15.92146797400257</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>99157B</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>15.70066805540391</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2668A</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>15.53332713736358</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8110Z</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>15.42461097775995</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>58593B</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>15.14847544192373</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>10278A</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>15.14268302059551</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2145Z</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>15.08488405189788</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>9144C</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>14.82671813701826</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7225F</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>14.13950777076971</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>99319E</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>13.56609375204328</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3239V</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>13.32291146928842</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3595V</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>12.93285108336175</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>94X</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>12.85635728123592</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>355U</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>12.81695619003599</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7225T</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>12.49002265661338</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>295A</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>12.19439679956574</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>9257F</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>11.92821699567385</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>355P</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>11.38371599559524</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>94W</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>11.33375842868309</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>77360B</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>11.25364767203963</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>58566A</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>11.08704663091038</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>355A</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>10.60665717912585</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>8110A</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>10.05443484058586</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>355X</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>9.988943209760485</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>96671V</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>9.794583981133766</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>6008X</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>9.225697711736785</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>66300A</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>9.155336375060608</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1412E</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>9.053937504585747</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>16689A</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>8.984667256270964</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1551A</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>8.126584049912553</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>5013X</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>7.989112406959928</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>8110R</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>6.071661489575521</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>5690W</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>4.753645887412225</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>110V</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>4.375277699142689</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2083Z</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1.502848887625297</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>80001C</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.3245099894909547</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>7225C</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.5417694401723433</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>8823Z</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.996059926064783</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1755K</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>-4.46517539472219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>EPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>52050A</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85.54631267486627</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>31260X</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72.10167878166276</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31260Z</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55.62649139991649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>97230D</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53.58792010617162</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>31260V</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52.93602422159066</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3477C</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52.45197647359285</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1002S</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>51.26282317105507</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>97230A</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>51.11152024693474</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>31260Y</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>50.89750255274163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>52050C</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>48.56331290366374</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3477A</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>48.49219002852185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3477D</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>47.99271400977621</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>97230F</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>47.84718914261758</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1002B</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>46.51550328113446</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1002V</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>46.47127086145859</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1002F</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44.44613386049404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2640X</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>43.33365606747536</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>87959A</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>42.85856319678818</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1002X</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>42.67233771489658</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>97230C</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>39.94713011944881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3477B</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>39.91573468562375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12141A</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>35.42201449956878</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>